--- a/Data/EC/NIT-9006983211.xlsx
+++ b/Data/EC/NIT-9006983211.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04CED9A9-4A72-405A-B73A-2A732A85B21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77A29D2B-6756-476A-9DB3-5DACF697DCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{59A5C874-0E0E-484D-A31C-02FF44EB05EC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{67E07CEA-E7BB-4EBD-89D7-C0DB0EFAE934}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,142 +71,142 @@
     <t>CARLOS ENRIQUE ZAMBRANO HERRERA</t>
   </si>
   <si>
+    <t>1604</t>
+  </si>
+  <si>
+    <t>1605</t>
+  </si>
+  <si>
+    <t>1606</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
     <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>1606</t>
-  </si>
-  <si>
-    <t>1605</t>
-  </si>
-  <si>
-    <t>1604</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -305,7 +305,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -318,9 +320,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -520,23 +520,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -564,10 +564,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -620,7 +620,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6372CB7A-B2AE-804C-F268-67E52A7209F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A4E696C-B0B1-7B22-CE7E-226FBBB56A68}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -971,7 +971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A28112F-65FE-4FF9-A66B-EE888124FB86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F811161E-C424-4E42-9F1F-D3AA6CAEF910}">
   <dimension ref="B2:J67"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1149,10 +1149,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>31249</v>
+        <v>6900</v>
       </c>
       <c r="G16" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1172,10 +1172,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>6900</v>
       </c>
       <c r="G17" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1195,10 +1195,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>6900</v>
       </c>
       <c r="G18" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1218,10 +1218,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>6894</v>
       </c>
       <c r="G19" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1241,10 +1241,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>6894</v>
       </c>
       <c r="G20" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1264,10 +1264,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>6894</v>
       </c>
       <c r="G21" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1287,10 +1287,10 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>6894</v>
       </c>
       <c r="G22" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1310,10 +1310,10 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>6894</v>
       </c>
       <c r="G23" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1333,10 +1333,10 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>6894</v>
       </c>
       <c r="G24" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1356,10 +1356,10 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>13789</v>
       </c>
       <c r="G25" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1379,10 +1379,10 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>13789</v>
       </c>
       <c r="G26" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1402,10 +1402,10 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>13789</v>
       </c>
       <c r="G27" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1425,10 +1425,10 @@
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>14754</v>
       </c>
       <c r="G28" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1448,10 +1448,10 @@
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>14754</v>
       </c>
       <c r="G29" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1471,10 +1471,10 @@
         <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>14754</v>
       </c>
       <c r="G30" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1494,10 +1494,10 @@
         <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>23437</v>
+        <v>14754</v>
       </c>
       <c r="G31" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1517,10 +1517,10 @@
         <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>23437</v>
+        <v>14754</v>
       </c>
       <c r="G32" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1540,10 +1540,10 @@
         <v>28</v>
       </c>
       <c r="F33" s="18">
-        <v>23437</v>
+        <v>14754</v>
       </c>
       <c r="G33" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1563,10 +1563,10 @@
         <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>23437</v>
+        <v>14754</v>
       </c>
       <c r="G34" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1589,7 +1589,7 @@
         <v>22132</v>
       </c>
       <c r="G35" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1612,7 +1612,7 @@
         <v>22132</v>
       </c>
       <c r="G36" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1635,7 +1635,7 @@
         <v>22132</v>
       </c>
       <c r="G37" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1658,7 +1658,7 @@
         <v>22132</v>
       </c>
       <c r="G38" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1681,7 +1681,7 @@
         <v>22132</v>
       </c>
       <c r="G39" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1704,7 +1704,7 @@
         <v>22132</v>
       </c>
       <c r="G40" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1727,7 +1727,7 @@
         <v>22132</v>
       </c>
       <c r="G41" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1750,7 +1750,7 @@
         <v>22132</v>
       </c>
       <c r="G42" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1770,10 +1770,10 @@
         <v>38</v>
       </c>
       <c r="F43" s="18">
-        <v>14754</v>
+        <v>23437</v>
       </c>
       <c r="G43" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1793,10 +1793,10 @@
         <v>39</v>
       </c>
       <c r="F44" s="18">
-        <v>14754</v>
+        <v>23437</v>
       </c>
       <c r="G44" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1816,10 +1816,10 @@
         <v>40</v>
       </c>
       <c r="F45" s="18">
-        <v>14754</v>
+        <v>23437</v>
       </c>
       <c r="G45" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1839,10 +1839,10 @@
         <v>41</v>
       </c>
       <c r="F46" s="18">
-        <v>14754</v>
+        <v>23437</v>
       </c>
       <c r="G46" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1862,10 +1862,10 @@
         <v>42</v>
       </c>
       <c r="F47" s="18">
-        <v>14754</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1885,10 +1885,10 @@
         <v>43</v>
       </c>
       <c r="F48" s="18">
-        <v>14754</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1908,10 +1908,10 @@
         <v>44</v>
       </c>
       <c r="F49" s="18">
-        <v>14754</v>
+        <v>31249</v>
       </c>
       <c r="G49" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1931,10 +1931,10 @@
         <v>45</v>
       </c>
       <c r="F50" s="18">
-        <v>13789</v>
+        <v>31249</v>
       </c>
       <c r="G50" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1954,10 +1954,10 @@
         <v>46</v>
       </c>
       <c r="F51" s="18">
-        <v>13789</v>
+        <v>31249</v>
       </c>
       <c r="G51" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1977,10 +1977,10 @@
         <v>47</v>
       </c>
       <c r="F52" s="18">
-        <v>13789</v>
+        <v>31249</v>
       </c>
       <c r="G52" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2000,10 +2000,10 @@
         <v>48</v>
       </c>
       <c r="F53" s="18">
-        <v>6894</v>
+        <v>31249</v>
       </c>
       <c r="G53" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2023,10 +2023,10 @@
         <v>49</v>
       </c>
       <c r="F54" s="18">
-        <v>6894</v>
+        <v>31249</v>
       </c>
       <c r="G54" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2046,10 +2046,10 @@
         <v>50</v>
       </c>
       <c r="F55" s="18">
-        <v>6894</v>
+        <v>31249</v>
       </c>
       <c r="G55" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2069,10 +2069,10 @@
         <v>51</v>
       </c>
       <c r="F56" s="18">
-        <v>6894</v>
+        <v>31249</v>
       </c>
       <c r="G56" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2092,10 +2092,10 @@
         <v>52</v>
       </c>
       <c r="F57" s="18">
-        <v>6894</v>
+        <v>31249</v>
       </c>
       <c r="G57" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2115,10 +2115,10 @@
         <v>53</v>
       </c>
       <c r="F58" s="18">
-        <v>6894</v>
+        <v>31249</v>
       </c>
       <c r="G58" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2138,10 +2138,10 @@
         <v>54</v>
       </c>
       <c r="F59" s="18">
-        <v>6900</v>
+        <v>31249</v>
       </c>
       <c r="G59" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2161,10 +2161,10 @@
         <v>55</v>
       </c>
       <c r="F60" s="18">
-        <v>6900</v>
+        <v>31249</v>
       </c>
       <c r="G60" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2184,10 +2184,10 @@
         <v>56</v>
       </c>
       <c r="F61" s="24">
-        <v>6900</v>
+        <v>31249</v>
       </c>
       <c r="G61" s="24">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H61" s="25"/>
       <c r="I61" s="25"/>
